--- a/Testing_Hotcard.xlsx
+++ b/Testing_Hotcard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,18 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>project coordinator</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Testing_Hotcard.xlsx
+++ b/Testing_Hotcard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Client Setting/Value</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>2025-10-16 00:00:00</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-10-16 00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +478,11 @@
           <t>YYY</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>YYY</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +495,11 @@
           <t>123ABX007</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>123ABX007</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,6 +510,50 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>FISB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>old platform</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>new platform</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>

--- a/Testing_Hotcard.xlsx
+++ b/Testing_Hotcard.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,41 @@
           <t>Value</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Migration Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FINANCIAL INSTITUTION NAME</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Entity ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CURRENT SWITCH</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Old Platform</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>New Platform</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +501,13 @@
           <t>2025-10-16 00:00:00</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +525,13 @@
           <t>YYY</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +549,13 @@
           <t>123ABX007</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +573,13 @@
           <t>FISB</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -525,11 +588,14 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -538,11 +604,14 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,7 +620,54 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>client setting/value</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-10-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>YYY</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>123ABX007</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>

--- a/Testing_Hotcard.xlsx
+++ b/Testing_Hotcard.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,11 @@
           <t>2025-10-16 00:00:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -525,7 +529,11 @@
           <t>YYY</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -549,7 +557,11 @@
           <t>123ABX007</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -573,7 +585,11 @@
           <t>FISB</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -589,7 +605,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -605,7 +625,11 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -621,7 +645,11 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>

--- a/Testing_Hotcard.xlsx
+++ b/Testing_Hotcard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,36 @@
           <t>Service</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Field1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Field2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Field3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -501,17 +531,23 @@
           <t>2025-10-16 00:00:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,17 +565,23 @@
           <t>YYY</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -557,17 +599,23 @@
           <t>123ABX007</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -585,17 +633,23 @@
           <t>FISB</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -605,17 +659,23 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -625,17 +685,23 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -645,17 +711,23 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -677,7 +749,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>123ABX007</t>
+          <t>123abx007</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -685,17 +757,35 @@
           <t>FISB</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-10-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>YYY</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
